--- a/biology/Botanique/Tilia_heterophylla/Tilia_heterophylla.xlsx
+++ b/biology/Botanique/Tilia_heterophylla/Tilia_heterophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tilia heterophylla est une espèce de tilleul (genre Tilia), native de l'est de l'Amérique du Nord, du centre de l'état de New York à l'extrême nord de la Floride et à l'ouest du Missouri. Cette espèce est plus commune dans les Appalaches[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tilia heterophylla est une espèce de tilleul (genre Tilia), native de l'est de l'Amérique du Nord, du centre de l'état de New York à l'extrême nord de la Floride et à l'ouest du Missouri. Cette espèce est plus commune dans les Appalaches.
 Ce qui le distingue surtout des autres espèces de tilleuls d'Amérique du Nord est la présence d'un feutre dense (tomentum), de duvet blanc, au-dessous des feuilles.
-Cette espèce a souvent été considérée comme une variété botanique de Tilia americana, soit Tilia americana var. heterophylla[3],[4] bien que pour certains ce soit une espèce à part entière du genre, plus proche de certaines espèces européenness et asiatiques de Tilia avec un « tomentum » à la face inférieure des feuilles comme Tilia tomentosa[5]. Le problème du statut de cette espèce se complique encore par l'hybridation naturelle avec Tilia americana[2].
+Cette espèce a souvent été considérée comme une variété botanique de Tilia americana, soit Tilia americana var. heterophylla, bien que pour certains ce soit une espèce à part entière du genre, plus proche de certaines espèces européenness et asiatiques de Tilia avec un « tomentum » à la face inférieure des feuilles comme Tilia tomentosa. Le problème du statut de cette espèce se complique encore par l'hybridation naturelle avec Tilia americana.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tilia monticola,
 Tilia eburnea,
@@ -548,10 +562,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tilia heterophylla est un arbre à feuilles caduques, de taille moyenne à grande, poussant jusqu'à 27 m de haut, son tronc allant jusqu'à 90 cm de diamètre. Les feuilles sont grandes, irrégulières à la base, de 7 à 19 cm de long et de 6 à 14 cm de large, avec une bordure finement dentée ; elles sont d'un vert pâle et lisses en face supérieure, argentées et duveteuses en face inférieure. 
-Les fleurs, plus grandes que celles de T. americana, sont groupées en grappes de 10 à 24. Le fruit est sphérique, de 13 mm de diamètre, duveteux, avec une bractée pointue à la base[2].
+Les fleurs, plus grandes que celles de T. americana, sont groupées en grappes de 10 à 24. Le fruit est sphérique, de 13 mm de diamètre, duveteux, avec une bractée pointue à la base.
 Cet arbre n'est pas très bien connu mais le professeur Charles Sargent, dans The Silva of North America, dit de lui : 
 .
 </t>
@@ -582,10 +598,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois, appelé « basswood » dans les pays anglo-saxons n'est pas différent de celui des autres Tilia. 
-Les feuilles sont comestibles à l'état jeune, et peuvent donner un thé moyen en goût[7].
+Les feuilles sont comestibles à l'état jeune, et peuvent donner un thé moyen en goût.
 </t>
         </is>
       </c>
